--- a/metrics/MAPE/upto time/Retinopatía proliferativa (UPTO).xlsx
+++ b/metrics/MAPE/upto time/Retinopatía proliferativa (UPTO).xlsx
@@ -478,13 +478,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>9089718568788.539</v>
+        <v>9154793849483.859</v>
       </c>
       <c r="C3" t="n">
-        <v>9141097564572.35</v>
+        <v>9083174177648.387</v>
       </c>
       <c r="D3" t="n">
-        <v>9269175114792.254</v>
+        <v>9038935496442.977</v>
       </c>
     </row>
     <row r="4">
@@ -494,13 +494,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>10812587229670.97</v>
+        <v>10609847406157.94</v>
       </c>
       <c r="C4" t="n">
-        <v>10761175366085.99</v>
+        <v>10770891785860.36</v>
       </c>
       <c r="D4" t="n">
-        <v>10680255831108.74</v>
+        <v>10779537988618.75</v>
       </c>
     </row>
     <row r="5">
@@ -510,13 +510,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>64313837889482.45</v>
+        <v>77118070684567.77</v>
       </c>
       <c r="C5" t="n">
-        <v>79794675865427.16</v>
+        <v>90371517062152.23</v>
       </c>
       <c r="D5" t="n">
-        <v>67676115751860.75</v>
+        <v>63530497242137.01</v>
       </c>
     </row>
   </sheetData>
